--- a/data-scrapping/twitter/geo location 2019 tweets wo emoji translated senti.xlsx
+++ b/data-scrapping/twitter/geo location 2019 tweets wo emoji translated senti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Desktop\capstone\Guest-Feedback-Insights\data-scrapping\twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A4F69-21E7-4CCD-83A5-D43CF84C0221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7210F-1721-4910-870B-77E67CB378AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11691,7 +11691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11704,6 +11704,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12008,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14941,42 +14944,42 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="8">
         <v>43791.293425925927</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="9" t="s">
         <v>2262</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
+      <c r="E147" s="10">
+        <v>0</v>
+      </c>
+      <c r="F147" s="10">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="5">
         <v>43790.608599537038</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="6" t="s">
         <v>2263</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
+      <c r="E148" s="7">
+        <v>0</v>
+      </c>
+      <c r="F148" s="7">
         <v>0.73599999999999999</v>
       </c>
     </row>

--- a/data-scrapping/twitter/geo location 2019 tweets wo emoji translated senti.xlsx
+++ b/data-scrapping/twitter/geo location 2019 tweets wo emoji translated senti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Desktop\capstone\Guest-Feedback-Insights\data-scrapping\twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7210F-1721-4910-870B-77E67CB378AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA977B70-C370-41AA-A1A5-E1C9A272FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1695" windowWidth="20955" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="3176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="3174">
   <si>
     <t>Text</t>
   </si>
@@ -11620,12 +11620,6 @@
   </si>
   <si>
     <t>1080003440510554112</t>
-  </si>
-  <si>
-    <t>1079994946990624770</t>
-  </si>
-  <si>
-    <t>1079938896291602433</t>
   </si>
 </sst>
 </file>
@@ -12009,10 +12003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1060"/>
+  <dimension ref="A1:F1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="B1059" sqref="B1059:B1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33183,16 +33177,6 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1059" s="4" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1060" s="4" t="s">
-        <v>3175</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
